--- a/Data Cleaning Excel Tutorial.xlsx
+++ b/Data Cleaning Excel Tutorial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d8546215b3d1077/Documents/Git repository/Excel-Tutorial-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C3F4832D-6691-4E80-9CE5-51C600B1F941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="14_{C3F4832D-6691-4E80-9CE5-51C600B1F941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD8BAA1-BAD4-46E4-A9A2-56C7746F6043}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US_Presidents Excel Tutorial Da" sheetId="1" r:id="rId1"/>
+    <sheet name="US_Pres Staging 1" sheetId="3" r:id="rId2"/>
+    <sheet name="US_Pres Staging 2" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'US_Pres Staging 1'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'US_Pres Staging 2'!$A$1:$E$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -24,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="143">
   <si>
     <t>S.No.</t>
   </si>
@@ -443,6 +448,24 @@
   </si>
   <si>
     <t>date updated</t>
+  </si>
+  <si>
+    <t>Aaron Burr</t>
+  </si>
+  <si>
+    <t>George Clinton</t>
+  </si>
+  <si>
+    <t>Office Vacant</t>
+  </si>
+  <si>
+    <t>George M. Dallas</t>
+  </si>
+  <si>
+    <t>James Monroe</t>
+  </si>
+  <si>
+    <t>William Mckinley</t>
   </si>
 </sst>
 </file>
@@ -451,7 +474,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -936,12 +959,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1299,16 +1323,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="23.5546875" style="3"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1363,7 +1395,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1392,7 +1424,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1421,7 +1453,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1450,7 +1482,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1479,7 +1511,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1508,7 +1540,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1537,7 +1569,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1566,7 +1598,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1595,7 +1627,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1624,7 +1656,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1653,7 +1685,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1682,7 +1714,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1711,7 +1743,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1740,7 +1772,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1769,7 +1801,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1798,7 +1830,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1827,7 +1859,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1856,7 +1888,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1885,7 +1917,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1914,7 +1946,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1943,7 +1975,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1972,7 +2004,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2001,7 +2033,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2030,7 +2062,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2059,7 +2091,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2088,7 +2120,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2117,7 +2149,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2146,7 +2178,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2175,7 +2207,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2204,7 +2236,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2233,7 +2265,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2262,7 +2294,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2291,7 +2323,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2320,7 +2352,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2349,7 +2381,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2378,7 +2410,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2407,7 +2439,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2436,7 +2468,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2465,7 +2497,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2494,7 +2526,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2523,7 +2555,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2552,7 +2584,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2581,7 +2613,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2610,7 +2642,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2639,7 +2671,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -2668,7 +2700,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -2703,4 +2735,2217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61905AD7-4252-4F46-BBB8-642DA24859D5}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="5">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="5">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I5" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I7" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5">
+        <v>35000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I8" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I9" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45000</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="5">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I11" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="5">
+        <v>55000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="5">
+        <v>60000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I13" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="5">
+        <v>65000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="5">
+        <v>75000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="5">
+        <v>85000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I16" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5">
+        <v>95000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I17" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="5">
+        <v>105000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I18" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="5">
+        <v>115000</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I19" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="5">
+        <v>125000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I20" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="5">
+        <v>135000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I21" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="5">
+        <v>145000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="5">
+        <v>155000</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I23" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="5">
+        <v>165000</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I24" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="5">
+        <v>175000</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I25" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="5">
+        <v>185000</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I26" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="5">
+        <v>195000</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I27" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="5">
+        <v>205000</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I28" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="5">
+        <v>225000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I29" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="5">
+        <v>225000</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I30" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="5">
+        <v>235000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I31" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="5">
+        <v>245000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="5">
+        <v>255000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="5">
+        <v>265000</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="5">
+        <v>275000</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="5">
+        <v>285000</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="5">
+        <v>295000</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="5">
+        <v>305000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I38" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="5">
+        <v>315000</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I39" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="5">
+        <v>325000</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I40" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="5">
+        <v>335000</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I41" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="5">
+        <v>345000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="5">
+        <v>355000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I43" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="5">
+        <v>365000</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I44" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="5">
+        <v>375000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I45" s="1">
+        <v>40972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="5">
+        <v>395000</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I46" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="5">
+        <v>405000</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44391</v>
+      </c>
+      <c r="I47" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I47" xr:uid="{61905AD7-4252-4F46-BBB8-642DA24859D5}"/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9AF9FD-C734-4BE2-A012-F73D5FD924AC}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="5">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="5">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="5">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="5">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="5">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="5">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="5">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="5">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="5">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="5">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="5">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="5">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="5">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="5">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="5">
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="5">
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="5">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="5">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="5">
+        <v>335000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="5">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="5">
+        <v>355000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="5">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="5">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="5">
+        <v>395000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="5">
+        <v>405000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E47" xr:uid="{61905AD7-4252-4F46-BBB8-642DA24859D5}"/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>